--- a/WorkBot/main/backend/ordering/OrderFiles/FingerLakes Farms/FingerLakes Farms_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/FingerLakes Farms/FingerLakes Farms_Triphammer_20250704.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,189 +451,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HS105</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Harney &amp; Sons - CRUISE</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harney &amp; Sons - REST</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>004051</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Natalie's - Grapefruit</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.70</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>003003</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Red Jacket - Fuji Apple</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>003014</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Red Jacket - Fuji Apple 32oz</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Red Jacket - Rasp/Apple</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>003005</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Red Jacket - Strawberry (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>total_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cost_per</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>total_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>cost_per</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>total_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>cost_per</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>total_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>cost_per</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
